--- a/20_営業/07_会計/BR100/ERP_T_BR100_CFO_GL-009_カレンダの定義.xlsx
+++ b/20_営業/07_会計/BR100/ERP_T_BR100_CFO_GL-009_カレンダの定義.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\main\20_チェックイン\07_会計\03324\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\main\10_チェックアウト\05_営業\03448\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12720" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="2" r:id="rId1"/>
@@ -868,7 +868,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="123">
   <si>
     <t>変更日</t>
     <rPh sb="0" eb="3">
@@ -1186,10 +1186,6 @@
     <t>2024-04-adj</t>
   </si>
   <si>
-    <t xml:space="preserve">      :</t>
-    <phoneticPr fontId="36"/>
-  </si>
-  <si>
     <t>2024-05</t>
     <phoneticPr fontId="36"/>
   </si>
@@ -1264,7 +1260,75 @@
     <phoneticPr fontId="36"/>
   </si>
   <si>
-    <t>2024年度　2025年度5月追加</t>
+    <t>2024年度　追加</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>2025年度　追加</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>2025-05</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>2025-06</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>2025-07</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>2025-07-adj</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>2025-08</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>2025-09</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>2025-10</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>2025-10-adj</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>2025-11</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>2025-12</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>2026-01</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>2026-01-adj</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>2026-02</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>2026-03</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>2026-04</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>2026-04-adj</t>
     <phoneticPr fontId="36"/>
   </si>
 </sst>
@@ -2156,7 +2220,7 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1">
@@ -2257,13 +2321,43 @@
     <xf numFmtId="0" fontId="42" fillId="17" borderId="25" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2272,21 +2366,61 @@
     <xf numFmtId="0" fontId="37" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="37" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="37" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="39" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2316,95 +2450,20 @@
     <xf numFmtId="0" fontId="39" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="37" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="37" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="37" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="39" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="62">
@@ -9842,1168 +9901,1245 @@
   <dimension ref="A1:AK30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AP8" sqref="AP8"/>
+      <selection activeCell="J6" sqref="J6:AK6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="10.8"/>
   <cols>
-    <col min="1" max="8" width="2.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="2.625" style="1"/>
+    <col min="1" max="8" width="2.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.77734375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="12" thickBot="1"/>
-    <row r="2" spans="1:37" ht="12" thickBot="1">
-      <c r="A2" s="62" t="s">
+    <row r="1" spans="1:37" ht="11.4" thickBot="1"/>
+    <row r="2" spans="1:37" ht="11.4" thickBot="1">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="62" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="36" t="s">
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="37"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="79"/>
+      <c r="Z2" s="79"/>
+      <c r="AA2" s="79"/>
+      <c r="AB2" s="79"/>
+      <c r="AC2" s="79"/>
+      <c r="AD2" s="79"/>
+      <c r="AE2" s="79"/>
+      <c r="AF2" s="79"/>
+      <c r="AG2" s="79"/>
+      <c r="AH2" s="79"/>
+      <c r="AI2" s="79"/>
+      <c r="AJ2" s="79"/>
+      <c r="AK2" s="80"/>
     </row>
     <row r="3" spans="1:37">
-      <c r="A3" s="77">
+      <c r="A3" s="48">
         <v>44865</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="68" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="38" t="s">
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="39"/>
-      <c r="AC3" s="39"/>
-      <c r="AD3" s="39"/>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="39"/>
-      <c r="AJ3" s="39"/>
-      <c r="AK3" s="40"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="49"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="50"/>
     </row>
     <row r="4" spans="1:37">
-      <c r="A4" s="78">
+      <c r="A4" s="51">
         <v>45358</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="71" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="41" t="s">
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="82"/>
+      <c r="R4" s="82"/>
+      <c r="S4" s="82"/>
+      <c r="T4" s="82"/>
+      <c r="U4" s="82"/>
+      <c r="V4" s="82"/>
+      <c r="W4" s="82"/>
+      <c r="X4" s="82"/>
+      <c r="Y4" s="82"/>
+      <c r="Z4" s="82"/>
+      <c r="AA4" s="82"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="82"/>
+      <c r="AD4" s="82"/>
+      <c r="AE4" s="82"/>
+      <c r="AF4" s="82"/>
+      <c r="AG4" s="82"/>
+      <c r="AH4" s="82"/>
+      <c r="AI4" s="82"/>
+      <c r="AJ4" s="82"/>
+      <c r="AK4" s="83"/>
+    </row>
+    <row r="5" spans="1:37">
+      <c r="A5" s="54">
+        <v>45709</v>
+      </c>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41"/>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="41"/>
-      <c r="AF4" s="41"/>
-      <c r="AG4" s="41"/>
-      <c r="AH4" s="41"/>
-      <c r="AI4" s="41"/>
-      <c r="AJ4" s="41"/>
-      <c r="AK4" s="42"/>
-    </row>
-    <row r="5" spans="1:37">
-      <c r="A5" s="74"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="44"/>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="44"/>
-      <c r="Z5" s="44"/>
-      <c r="AA5" s="44"/>
-      <c r="AB5" s="44"/>
-      <c r="AC5" s="44"/>
-      <c r="AD5" s="44"/>
-      <c r="AE5" s="44"/>
-      <c r="AF5" s="44"/>
-      <c r="AG5" s="44"/>
-      <c r="AH5" s="44"/>
-      <c r="AI5" s="44"/>
-      <c r="AJ5" s="44"/>
-      <c r="AK5" s="45"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="82"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
+      <c r="W5" s="82"/>
+      <c r="X5" s="82"/>
+      <c r="Y5" s="82"/>
+      <c r="Z5" s="82"/>
+      <c r="AA5" s="82"/>
+      <c r="AB5" s="82"/>
+      <c r="AC5" s="82"/>
+      <c r="AD5" s="82"/>
+      <c r="AE5" s="82"/>
+      <c r="AF5" s="82"/>
+      <c r="AG5" s="82"/>
+      <c r="AH5" s="82"/>
+      <c r="AI5" s="82"/>
+      <c r="AJ5" s="82"/>
+      <c r="AK5" s="83"/>
     </row>
     <row r="6" spans="1:37">
-      <c r="A6" s="78"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="49"/>
-      <c r="Y6" s="49"/>
-      <c r="Z6" s="49"/>
-      <c r="AA6" s="49"/>
-      <c r="AB6" s="49"/>
-      <c r="AC6" s="49"/>
-      <c r="AD6" s="49"/>
-      <c r="AE6" s="49"/>
-      <c r="AF6" s="49"/>
-      <c r="AG6" s="49"/>
-      <c r="AH6" s="49"/>
-      <c r="AI6" s="49"/>
-      <c r="AJ6" s="49"/>
-      <c r="AK6" s="50"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="71"/>
+      <c r="V6" s="71"/>
+      <c r="W6" s="71"/>
+      <c r="X6" s="71"/>
+      <c r="Y6" s="71"/>
+      <c r="Z6" s="71"/>
+      <c r="AA6" s="71"/>
+      <c r="AB6" s="71"/>
+      <c r="AC6" s="71"/>
+      <c r="AD6" s="71"/>
+      <c r="AE6" s="71"/>
+      <c r="AF6" s="71"/>
+      <c r="AG6" s="71"/>
+      <c r="AH6" s="71"/>
+      <c r="AI6" s="71"/>
+      <c r="AJ6" s="71"/>
+      <c r="AK6" s="72"/>
     </row>
     <row r="7" spans="1:37">
-      <c r="A7" s="74"/>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="52"/>
-      <c r="U7" s="52"/>
-      <c r="V7" s="52"/>
-      <c r="W7" s="52"/>
-      <c r="X7" s="52"/>
-      <c r="Y7" s="52"/>
-      <c r="Z7" s="52"/>
-      <c r="AA7" s="52"/>
-      <c r="AB7" s="52"/>
-      <c r="AC7" s="52"/>
-      <c r="AD7" s="52"/>
-      <c r="AE7" s="52"/>
-      <c r="AF7" s="52"/>
-      <c r="AG7" s="52"/>
-      <c r="AH7" s="52"/>
-      <c r="AI7" s="52"/>
-      <c r="AJ7" s="52"/>
-      <c r="AK7" s="53"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="74"/>
+      <c r="R7" s="74"/>
+      <c r="S7" s="74"/>
+      <c r="T7" s="74"/>
+      <c r="U7" s="74"/>
+      <c r="V7" s="74"/>
+      <c r="W7" s="74"/>
+      <c r="X7" s="74"/>
+      <c r="Y7" s="74"/>
+      <c r="Z7" s="74"/>
+      <c r="AA7" s="74"/>
+      <c r="AB7" s="74"/>
+      <c r="AC7" s="74"/>
+      <c r="AD7" s="74"/>
+      <c r="AE7" s="74"/>
+      <c r="AF7" s="74"/>
+      <c r="AG7" s="74"/>
+      <c r="AH7" s="74"/>
+      <c r="AI7" s="74"/>
+      <c r="AJ7" s="74"/>
+      <c r="AK7" s="75"/>
     </row>
     <row r="8" spans="1:37">
-      <c r="A8" s="74"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="52"/>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="52"/>
-      <c r="Z8" s="52"/>
-      <c r="AA8" s="52"/>
-      <c r="AB8" s="52"/>
-      <c r="AC8" s="52"/>
-      <c r="AD8" s="52"/>
-      <c r="AE8" s="52"/>
-      <c r="AF8" s="52"/>
-      <c r="AG8" s="52"/>
-      <c r="AH8" s="52"/>
-      <c r="AI8" s="52"/>
-      <c r="AJ8" s="52"/>
-      <c r="AK8" s="53"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="74"/>
+      <c r="R8" s="74"/>
+      <c r="S8" s="74"/>
+      <c r="T8" s="74"/>
+      <c r="U8" s="74"/>
+      <c r="V8" s="74"/>
+      <c r="W8" s="74"/>
+      <c r="X8" s="74"/>
+      <c r="Y8" s="74"/>
+      <c r="Z8" s="74"/>
+      <c r="AA8" s="74"/>
+      <c r="AB8" s="74"/>
+      <c r="AC8" s="74"/>
+      <c r="AD8" s="74"/>
+      <c r="AE8" s="74"/>
+      <c r="AF8" s="74"/>
+      <c r="AG8" s="74"/>
+      <c r="AH8" s="74"/>
+      <c r="AI8" s="74"/>
+      <c r="AJ8" s="74"/>
+      <c r="AK8" s="75"/>
     </row>
     <row r="9" spans="1:37">
-      <c r="A9" s="81"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="55"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="55"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="55"/>
-      <c r="X9" s="55"/>
-      <c r="Y9" s="55"/>
-      <c r="Z9" s="55"/>
-      <c r="AA9" s="55"/>
-      <c r="AB9" s="55"/>
-      <c r="AC9" s="55"/>
-      <c r="AD9" s="55"/>
-      <c r="AE9" s="55"/>
-      <c r="AF9" s="55"/>
-      <c r="AG9" s="55"/>
-      <c r="AH9" s="55"/>
-      <c r="AI9" s="55"/>
-      <c r="AJ9" s="55"/>
-      <c r="AK9" s="56"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="77"/>
+      <c r="R9" s="77"/>
+      <c r="S9" s="77"/>
+      <c r="T9" s="77"/>
+      <c r="U9" s="77"/>
+      <c r="V9" s="77"/>
+      <c r="W9" s="77"/>
+      <c r="X9" s="77"/>
+      <c r="Y9" s="77"/>
+      <c r="Z9" s="77"/>
+      <c r="AA9" s="77"/>
+      <c r="AB9" s="77"/>
+      <c r="AC9" s="77"/>
+      <c r="AD9" s="77"/>
+      <c r="AE9" s="77"/>
+      <c r="AF9" s="77"/>
+      <c r="AG9" s="77"/>
+      <c r="AH9" s="77"/>
+      <c r="AI9" s="77"/>
+      <c r="AJ9" s="77"/>
+      <c r="AK9" s="78"/>
     </row>
     <row r="10" spans="1:37">
-      <c r="A10" s="74"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="52"/>
-      <c r="S10" s="52"/>
-      <c r="T10" s="52"/>
-      <c r="U10" s="52"/>
-      <c r="V10" s="52"/>
-      <c r="W10" s="52"/>
-      <c r="X10" s="52"/>
-      <c r="Y10" s="52"/>
-      <c r="Z10" s="52"/>
-      <c r="AA10" s="52"/>
-      <c r="AB10" s="52"/>
-      <c r="AC10" s="52"/>
-      <c r="AD10" s="52"/>
-      <c r="AE10" s="52"/>
-      <c r="AF10" s="52"/>
-      <c r="AG10" s="52"/>
-      <c r="AH10" s="52"/>
-      <c r="AI10" s="52"/>
-      <c r="AJ10" s="52"/>
-      <c r="AK10" s="53"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="74"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="74"/>
+      <c r="W10" s="74"/>
+      <c r="X10" s="74"/>
+      <c r="Y10" s="74"/>
+      <c r="Z10" s="74"/>
+      <c r="AA10" s="74"/>
+      <c r="AB10" s="74"/>
+      <c r="AC10" s="74"/>
+      <c r="AD10" s="74"/>
+      <c r="AE10" s="74"/>
+      <c r="AF10" s="74"/>
+      <c r="AG10" s="74"/>
+      <c r="AH10" s="74"/>
+      <c r="AI10" s="74"/>
+      <c r="AJ10" s="74"/>
+      <c r="AK10" s="75"/>
     </row>
     <row r="11" spans="1:37">
-      <c r="A11" s="65"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="46"/>
-      <c r="S11" s="46"/>
-      <c r="T11" s="46"/>
-      <c r="U11" s="46"/>
-      <c r="V11" s="46"/>
-      <c r="W11" s="46"/>
-      <c r="X11" s="46"/>
-      <c r="Y11" s="46"/>
-      <c r="Z11" s="46"/>
-      <c r="AA11" s="46"/>
-      <c r="AB11" s="46"/>
-      <c r="AC11" s="46"/>
-      <c r="AD11" s="46"/>
-      <c r="AE11" s="46"/>
-      <c r="AF11" s="46"/>
-      <c r="AG11" s="46"/>
-      <c r="AH11" s="46"/>
-      <c r="AI11" s="46"/>
-      <c r="AJ11" s="46"/>
-      <c r="AK11" s="47"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="63"/>
+      <c r="T11" s="63"/>
+      <c r="U11" s="63"/>
+      <c r="V11" s="63"/>
+      <c r="W11" s="63"/>
+      <c r="X11" s="63"/>
+      <c r="Y11" s="63"/>
+      <c r="Z11" s="63"/>
+      <c r="AA11" s="63"/>
+      <c r="AB11" s="63"/>
+      <c r="AC11" s="63"/>
+      <c r="AD11" s="63"/>
+      <c r="AE11" s="63"/>
+      <c r="AF11" s="63"/>
+      <c r="AG11" s="63"/>
+      <c r="AH11" s="63"/>
+      <c r="AI11" s="63"/>
+      <c r="AJ11" s="63"/>
+      <c r="AK11" s="64"/>
     </row>
     <row r="12" spans="1:37">
-      <c r="A12" s="65"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="46"/>
-      <c r="S12" s="46"/>
-      <c r="T12" s="46"/>
-      <c r="U12" s="46"/>
-      <c r="V12" s="46"/>
-      <c r="W12" s="46"/>
-      <c r="X12" s="46"/>
-      <c r="Y12" s="46"/>
-      <c r="Z12" s="46"/>
-      <c r="AA12" s="46"/>
-      <c r="AB12" s="46"/>
-      <c r="AC12" s="46"/>
-      <c r="AD12" s="46"/>
-      <c r="AE12" s="46"/>
-      <c r="AF12" s="46"/>
-      <c r="AG12" s="46"/>
-      <c r="AH12" s="46"/>
-      <c r="AI12" s="46"/>
-      <c r="AJ12" s="46"/>
-      <c r="AK12" s="47"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="63"/>
+      <c r="T12" s="63"/>
+      <c r="U12" s="63"/>
+      <c r="V12" s="63"/>
+      <c r="W12" s="63"/>
+      <c r="X12" s="63"/>
+      <c r="Y12" s="63"/>
+      <c r="Z12" s="63"/>
+      <c r="AA12" s="63"/>
+      <c r="AB12" s="63"/>
+      <c r="AC12" s="63"/>
+      <c r="AD12" s="63"/>
+      <c r="AE12" s="63"/>
+      <c r="AF12" s="63"/>
+      <c r="AG12" s="63"/>
+      <c r="AH12" s="63"/>
+      <c r="AI12" s="63"/>
+      <c r="AJ12" s="63"/>
+      <c r="AK12" s="64"/>
     </row>
     <row r="13" spans="1:37">
-      <c r="A13" s="65"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="46"/>
-      <c r="T13" s="46"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="46"/>
-      <c r="W13" s="46"/>
-      <c r="X13" s="46"/>
-      <c r="Y13" s="46"/>
-      <c r="Z13" s="46"/>
-      <c r="AA13" s="46"/>
-      <c r="AB13" s="46"/>
-      <c r="AC13" s="46"/>
-      <c r="AD13" s="46"/>
-      <c r="AE13" s="46"/>
-      <c r="AF13" s="46"/>
-      <c r="AG13" s="46"/>
-      <c r="AH13" s="46"/>
-      <c r="AI13" s="46"/>
-      <c r="AJ13" s="46"/>
-      <c r="AK13" s="47"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="63"/>
+      <c r="S13" s="63"/>
+      <c r="T13" s="63"/>
+      <c r="U13" s="63"/>
+      <c r="V13" s="63"/>
+      <c r="W13" s="63"/>
+      <c r="X13" s="63"/>
+      <c r="Y13" s="63"/>
+      <c r="Z13" s="63"/>
+      <c r="AA13" s="63"/>
+      <c r="AB13" s="63"/>
+      <c r="AC13" s="63"/>
+      <c r="AD13" s="63"/>
+      <c r="AE13" s="63"/>
+      <c r="AF13" s="63"/>
+      <c r="AG13" s="63"/>
+      <c r="AH13" s="63"/>
+      <c r="AI13" s="63"/>
+      <c r="AJ13" s="63"/>
+      <c r="AK13" s="64"/>
     </row>
     <row r="14" spans="1:37">
-      <c r="A14" s="65"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
-      <c r="S14" s="46"/>
-      <c r="T14" s="46"/>
-      <c r="U14" s="46"/>
-      <c r="V14" s="46"/>
-      <c r="W14" s="46"/>
-      <c r="X14" s="46"/>
-      <c r="Y14" s="46"/>
-      <c r="Z14" s="46"/>
-      <c r="AA14" s="46"/>
-      <c r="AB14" s="46"/>
-      <c r="AC14" s="46"/>
-      <c r="AD14" s="46"/>
-      <c r="AE14" s="46"/>
-      <c r="AF14" s="46"/>
-      <c r="AG14" s="46"/>
-      <c r="AH14" s="46"/>
-      <c r="AI14" s="46"/>
-      <c r="AJ14" s="46"/>
-      <c r="AK14" s="47"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
+      <c r="S14" s="63"/>
+      <c r="T14" s="63"/>
+      <c r="U14" s="63"/>
+      <c r="V14" s="63"/>
+      <c r="W14" s="63"/>
+      <c r="X14" s="63"/>
+      <c r="Y14" s="63"/>
+      <c r="Z14" s="63"/>
+      <c r="AA14" s="63"/>
+      <c r="AB14" s="63"/>
+      <c r="AC14" s="63"/>
+      <c r="AD14" s="63"/>
+      <c r="AE14" s="63"/>
+      <c r="AF14" s="63"/>
+      <c r="AG14" s="63"/>
+      <c r="AH14" s="63"/>
+      <c r="AI14" s="63"/>
+      <c r="AJ14" s="63"/>
+      <c r="AK14" s="64"/>
     </row>
     <row r="15" spans="1:37">
-      <c r="A15" s="65"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="46"/>
-      <c r="T15" s="46"/>
-      <c r="U15" s="46"/>
-      <c r="V15" s="46"/>
-      <c r="W15" s="46"/>
-      <c r="X15" s="46"/>
-      <c r="Y15" s="46"/>
-      <c r="Z15" s="46"/>
-      <c r="AA15" s="46"/>
-      <c r="AB15" s="46"/>
-      <c r="AC15" s="46"/>
-      <c r="AD15" s="46"/>
-      <c r="AE15" s="46"/>
-      <c r="AF15" s="46"/>
-      <c r="AG15" s="46"/>
-      <c r="AH15" s="46"/>
-      <c r="AI15" s="46"/>
-      <c r="AJ15" s="46"/>
-      <c r="AK15" s="47"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="63"/>
+      <c r="S15" s="63"/>
+      <c r="T15" s="63"/>
+      <c r="U15" s="63"/>
+      <c r="V15" s="63"/>
+      <c r="W15" s="63"/>
+      <c r="X15" s="63"/>
+      <c r="Y15" s="63"/>
+      <c r="Z15" s="63"/>
+      <c r="AA15" s="63"/>
+      <c r="AB15" s="63"/>
+      <c r="AC15" s="63"/>
+      <c r="AD15" s="63"/>
+      <c r="AE15" s="63"/>
+      <c r="AF15" s="63"/>
+      <c r="AG15" s="63"/>
+      <c r="AH15" s="63"/>
+      <c r="AI15" s="63"/>
+      <c r="AJ15" s="63"/>
+      <c r="AK15" s="64"/>
     </row>
     <row r="16" spans="1:37">
-      <c r="A16" s="65"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="46"/>
-      <c r="U16" s="46"/>
-      <c r="V16" s="46"/>
-      <c r="W16" s="46"/>
-      <c r="X16" s="46"/>
-      <c r="Y16" s="46"/>
-      <c r="Z16" s="46"/>
-      <c r="AA16" s="46"/>
-      <c r="AB16" s="46"/>
-      <c r="AC16" s="46"/>
-      <c r="AD16" s="46"/>
-      <c r="AE16" s="46"/>
-      <c r="AF16" s="46"/>
-      <c r="AG16" s="46"/>
-      <c r="AH16" s="46"/>
-      <c r="AI16" s="46"/>
-      <c r="AJ16" s="46"/>
-      <c r="AK16" s="47"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="63"/>
+      <c r="T16" s="63"/>
+      <c r="U16" s="63"/>
+      <c r="V16" s="63"/>
+      <c r="W16" s="63"/>
+      <c r="X16" s="63"/>
+      <c r="Y16" s="63"/>
+      <c r="Z16" s="63"/>
+      <c r="AA16" s="63"/>
+      <c r="AB16" s="63"/>
+      <c r="AC16" s="63"/>
+      <c r="AD16" s="63"/>
+      <c r="AE16" s="63"/>
+      <c r="AF16" s="63"/>
+      <c r="AG16" s="63"/>
+      <c r="AH16" s="63"/>
+      <c r="AI16" s="63"/>
+      <c r="AJ16" s="63"/>
+      <c r="AK16" s="64"/>
     </row>
     <row r="17" spans="1:37">
-      <c r="A17" s="65"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="46"/>
-      <c r="S17" s="46"/>
-      <c r="T17" s="46"/>
-      <c r="U17" s="46"/>
-      <c r="V17" s="46"/>
-      <c r="W17" s="46"/>
-      <c r="X17" s="46"/>
-      <c r="Y17" s="46"/>
-      <c r="Z17" s="46"/>
-      <c r="AA17" s="46"/>
-      <c r="AB17" s="46"/>
-      <c r="AC17" s="46"/>
-      <c r="AD17" s="46"/>
-      <c r="AE17" s="46"/>
-      <c r="AF17" s="46"/>
-      <c r="AG17" s="46"/>
-      <c r="AH17" s="46"/>
-      <c r="AI17" s="46"/>
-      <c r="AJ17" s="46"/>
-      <c r="AK17" s="47"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="63"/>
+      <c r="S17" s="63"/>
+      <c r="T17" s="63"/>
+      <c r="U17" s="63"/>
+      <c r="V17" s="63"/>
+      <c r="W17" s="63"/>
+      <c r="X17" s="63"/>
+      <c r="Y17" s="63"/>
+      <c r="Z17" s="63"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
+      <c r="AG17" s="63"/>
+      <c r="AH17" s="63"/>
+      <c r="AI17" s="63"/>
+      <c r="AJ17" s="63"/>
+      <c r="AK17" s="64"/>
     </row>
     <row r="18" spans="1:37">
-      <c r="A18" s="65"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="46"/>
-      <c r="S18" s="46"/>
-      <c r="T18" s="46"/>
-      <c r="U18" s="46"/>
-      <c r="V18" s="46"/>
-      <c r="W18" s="46"/>
-      <c r="X18" s="46"/>
-      <c r="Y18" s="46"/>
-      <c r="Z18" s="46"/>
-      <c r="AA18" s="46"/>
-      <c r="AB18" s="46"/>
-      <c r="AC18" s="46"/>
-      <c r="AD18" s="46"/>
-      <c r="AE18" s="46"/>
-      <c r="AF18" s="46"/>
-      <c r="AG18" s="46"/>
-      <c r="AH18" s="46"/>
-      <c r="AI18" s="46"/>
-      <c r="AJ18" s="46"/>
-      <c r="AK18" s="47"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="63"/>
+      <c r="R18" s="63"/>
+      <c r="S18" s="63"/>
+      <c r="T18" s="63"/>
+      <c r="U18" s="63"/>
+      <c r="V18" s="63"/>
+      <c r="W18" s="63"/>
+      <c r="X18" s="63"/>
+      <c r="Y18" s="63"/>
+      <c r="Z18" s="63"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
+      <c r="AG18" s="63"/>
+      <c r="AH18" s="63"/>
+      <c r="AI18" s="63"/>
+      <c r="AJ18" s="63"/>
+      <c r="AK18" s="64"/>
     </row>
     <row r="19" spans="1:37">
-      <c r="A19" s="65"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="46"/>
-      <c r="T19" s="46"/>
-      <c r="U19" s="46"/>
-      <c r="V19" s="46"/>
-      <c r="W19" s="46"/>
-      <c r="X19" s="46"/>
-      <c r="Y19" s="46"/>
-      <c r="Z19" s="46"/>
-      <c r="AA19" s="46"/>
-      <c r="AB19" s="46"/>
-      <c r="AC19" s="46"/>
-      <c r="AD19" s="46"/>
-      <c r="AE19" s="46"/>
-      <c r="AF19" s="46"/>
-      <c r="AG19" s="46"/>
-      <c r="AH19" s="46"/>
-      <c r="AI19" s="46"/>
-      <c r="AJ19" s="46"/>
-      <c r="AK19" s="47"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="63"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="63"/>
+      <c r="Q19" s="63"/>
+      <c r="R19" s="63"/>
+      <c r="S19" s="63"/>
+      <c r="T19" s="63"/>
+      <c r="U19" s="63"/>
+      <c r="V19" s="63"/>
+      <c r="W19" s="63"/>
+      <c r="X19" s="63"/>
+      <c r="Y19" s="63"/>
+      <c r="Z19" s="63"/>
+      <c r="AA19" s="63"/>
+      <c r="AB19" s="63"/>
+      <c r="AC19" s="63"/>
+      <c r="AD19" s="63"/>
+      <c r="AE19" s="63"/>
+      <c r="AF19" s="63"/>
+      <c r="AG19" s="63"/>
+      <c r="AH19" s="63"/>
+      <c r="AI19" s="63"/>
+      <c r="AJ19" s="63"/>
+      <c r="AK19" s="64"/>
     </row>
     <row r="20" spans="1:37">
-      <c r="A20" s="65"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="46"/>
-      <c r="S20" s="46"/>
-      <c r="T20" s="46"/>
-      <c r="U20" s="46"/>
-      <c r="V20" s="46"/>
-      <c r="W20" s="46"/>
-      <c r="X20" s="46"/>
-      <c r="Y20" s="46"/>
-      <c r="Z20" s="46"/>
-      <c r="AA20" s="46"/>
-      <c r="AB20" s="46"/>
-      <c r="AC20" s="46"/>
-      <c r="AD20" s="46"/>
-      <c r="AE20" s="46"/>
-      <c r="AF20" s="46"/>
-      <c r="AG20" s="46"/>
-      <c r="AH20" s="46"/>
-      <c r="AI20" s="46"/>
-      <c r="AJ20" s="46"/>
-      <c r="AK20" s="47"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="63"/>
+      <c r="R20" s="63"/>
+      <c r="S20" s="63"/>
+      <c r="T20" s="63"/>
+      <c r="U20" s="63"/>
+      <c r="V20" s="63"/>
+      <c r="W20" s="63"/>
+      <c r="X20" s="63"/>
+      <c r="Y20" s="63"/>
+      <c r="Z20" s="63"/>
+      <c r="AA20" s="63"/>
+      <c r="AB20" s="63"/>
+      <c r="AC20" s="63"/>
+      <c r="AD20" s="63"/>
+      <c r="AE20" s="63"/>
+      <c r="AF20" s="63"/>
+      <c r="AG20" s="63"/>
+      <c r="AH20" s="63"/>
+      <c r="AI20" s="63"/>
+      <c r="AJ20" s="63"/>
+      <c r="AK20" s="64"/>
     </row>
     <row r="21" spans="1:37">
-      <c r="A21" s="65"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="46"/>
-      <c r="T21" s="46"/>
-      <c r="U21" s="46"/>
-      <c r="V21" s="46"/>
-      <c r="W21" s="46"/>
-      <c r="X21" s="46"/>
-      <c r="Y21" s="46"/>
-      <c r="Z21" s="46"/>
-      <c r="AA21" s="46"/>
-      <c r="AB21" s="46"/>
-      <c r="AC21" s="46"/>
-      <c r="AD21" s="46"/>
-      <c r="AE21" s="46"/>
-      <c r="AF21" s="46"/>
-      <c r="AG21" s="46"/>
-      <c r="AH21" s="46"/>
-      <c r="AI21" s="46"/>
-      <c r="AJ21" s="46"/>
-      <c r="AK21" s="47"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="63"/>
+      <c r="S21" s="63"/>
+      <c r="T21" s="63"/>
+      <c r="U21" s="63"/>
+      <c r="V21" s="63"/>
+      <c r="W21" s="63"/>
+      <c r="X21" s="63"/>
+      <c r="Y21" s="63"/>
+      <c r="Z21" s="63"/>
+      <c r="AA21" s="63"/>
+      <c r="AB21" s="63"/>
+      <c r="AC21" s="63"/>
+      <c r="AD21" s="63"/>
+      <c r="AE21" s="63"/>
+      <c r="AF21" s="63"/>
+      <c r="AG21" s="63"/>
+      <c r="AH21" s="63"/>
+      <c r="AI21" s="63"/>
+      <c r="AJ21" s="63"/>
+      <c r="AK21" s="64"/>
     </row>
     <row r="22" spans="1:37">
-      <c r="A22" s="65"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="46"/>
-      <c r="T22" s="46"/>
-      <c r="U22" s="46"/>
-      <c r="V22" s="46"/>
-      <c r="W22" s="46"/>
-      <c r="X22" s="46"/>
-      <c r="Y22" s="46"/>
-      <c r="Z22" s="46"/>
-      <c r="AA22" s="46"/>
-      <c r="AB22" s="46"/>
-      <c r="AC22" s="46"/>
-      <c r="AD22" s="46"/>
-      <c r="AE22" s="46"/>
-      <c r="AF22" s="46"/>
-      <c r="AG22" s="46"/>
-      <c r="AH22" s="46"/>
-      <c r="AI22" s="46"/>
-      <c r="AJ22" s="46"/>
-      <c r="AK22" s="47"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="63"/>
+      <c r="R22" s="63"/>
+      <c r="S22" s="63"/>
+      <c r="T22" s="63"/>
+      <c r="U22" s="63"/>
+      <c r="V22" s="63"/>
+      <c r="W22" s="63"/>
+      <c r="X22" s="63"/>
+      <c r="Y22" s="63"/>
+      <c r="Z22" s="63"/>
+      <c r="AA22" s="63"/>
+      <c r="AB22" s="63"/>
+      <c r="AC22" s="63"/>
+      <c r="AD22" s="63"/>
+      <c r="AE22" s="63"/>
+      <c r="AF22" s="63"/>
+      <c r="AG22" s="63"/>
+      <c r="AH22" s="63"/>
+      <c r="AI22" s="63"/>
+      <c r="AJ22" s="63"/>
+      <c r="AK22" s="64"/>
     </row>
     <row r="23" spans="1:37">
-      <c r="A23" s="65"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="46"/>
-      <c r="T23" s="46"/>
-      <c r="U23" s="46"/>
-      <c r="V23" s="46"/>
-      <c r="W23" s="46"/>
-      <c r="X23" s="46"/>
-      <c r="Y23" s="46"/>
-      <c r="Z23" s="46"/>
-      <c r="AA23" s="46"/>
-      <c r="AB23" s="46"/>
-      <c r="AC23" s="46"/>
-      <c r="AD23" s="46"/>
-      <c r="AE23" s="46"/>
-      <c r="AF23" s="46"/>
-      <c r="AG23" s="46"/>
-      <c r="AH23" s="46"/>
-      <c r="AI23" s="46"/>
-      <c r="AJ23" s="46"/>
-      <c r="AK23" s="47"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="63"/>
+      <c r="R23" s="63"/>
+      <c r="S23" s="63"/>
+      <c r="T23" s="63"/>
+      <c r="U23" s="63"/>
+      <c r="V23" s="63"/>
+      <c r="W23" s="63"/>
+      <c r="X23" s="63"/>
+      <c r="Y23" s="63"/>
+      <c r="Z23" s="63"/>
+      <c r="AA23" s="63"/>
+      <c r="AB23" s="63"/>
+      <c r="AC23" s="63"/>
+      <c r="AD23" s="63"/>
+      <c r="AE23" s="63"/>
+      <c r="AF23" s="63"/>
+      <c r="AG23" s="63"/>
+      <c r="AH23" s="63"/>
+      <c r="AI23" s="63"/>
+      <c r="AJ23" s="63"/>
+      <c r="AK23" s="64"/>
     </row>
     <row r="24" spans="1:37">
-      <c r="A24" s="65"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="46"/>
-      <c r="S24" s="46"/>
-      <c r="T24" s="46"/>
-      <c r="U24" s="46"/>
-      <c r="V24" s="46"/>
-      <c r="W24" s="46"/>
-      <c r="X24" s="46"/>
-      <c r="Y24" s="46"/>
-      <c r="Z24" s="46"/>
-      <c r="AA24" s="46"/>
-      <c r="AB24" s="46"/>
-      <c r="AC24" s="46"/>
-      <c r="AD24" s="46"/>
-      <c r="AE24" s="46"/>
-      <c r="AF24" s="46"/>
-      <c r="AG24" s="46"/>
-      <c r="AH24" s="46"/>
-      <c r="AI24" s="46"/>
-      <c r="AJ24" s="46"/>
-      <c r="AK24" s="47"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="63"/>
+      <c r="R24" s="63"/>
+      <c r="S24" s="63"/>
+      <c r="T24" s="63"/>
+      <c r="U24" s="63"/>
+      <c r="V24" s="63"/>
+      <c r="W24" s="63"/>
+      <c r="X24" s="63"/>
+      <c r="Y24" s="63"/>
+      <c r="Z24" s="63"/>
+      <c r="AA24" s="63"/>
+      <c r="AB24" s="63"/>
+      <c r="AC24" s="63"/>
+      <c r="AD24" s="63"/>
+      <c r="AE24" s="63"/>
+      <c r="AF24" s="63"/>
+      <c r="AG24" s="63"/>
+      <c r="AH24" s="63"/>
+      <c r="AI24" s="63"/>
+      <c r="AJ24" s="63"/>
+      <c r="AK24" s="64"/>
     </row>
     <row r="25" spans="1:37">
-      <c r="A25" s="65"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="46"/>
-      <c r="R25" s="46"/>
-      <c r="S25" s="46"/>
-      <c r="T25" s="46"/>
-      <c r="U25" s="46"/>
-      <c r="V25" s="46"/>
-      <c r="W25" s="46"/>
-      <c r="X25" s="46"/>
-      <c r="Y25" s="46"/>
-      <c r="Z25" s="46"/>
-      <c r="AA25" s="46"/>
-      <c r="AB25" s="46"/>
-      <c r="AC25" s="46"/>
-      <c r="AD25" s="46"/>
-      <c r="AE25" s="46"/>
-      <c r="AF25" s="46"/>
-      <c r="AG25" s="46"/>
-      <c r="AH25" s="46"/>
-      <c r="AI25" s="46"/>
-      <c r="AJ25" s="46"/>
-      <c r="AK25" s="47"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="63"/>
+      <c r="R25" s="63"/>
+      <c r="S25" s="63"/>
+      <c r="T25" s="63"/>
+      <c r="U25" s="63"/>
+      <c r="V25" s="63"/>
+      <c r="W25" s="63"/>
+      <c r="X25" s="63"/>
+      <c r="Y25" s="63"/>
+      <c r="Z25" s="63"/>
+      <c r="AA25" s="63"/>
+      <c r="AB25" s="63"/>
+      <c r="AC25" s="63"/>
+      <c r="AD25" s="63"/>
+      <c r="AE25" s="63"/>
+      <c r="AF25" s="63"/>
+      <c r="AG25" s="63"/>
+      <c r="AH25" s="63"/>
+      <c r="AI25" s="63"/>
+      <c r="AJ25" s="63"/>
+      <c r="AK25" s="64"/>
     </row>
     <row r="26" spans="1:37">
-      <c r="A26" s="65"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="46"/>
-      <c r="O26" s="46"/>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="46"/>
-      <c r="S26" s="46"/>
-      <c r="T26" s="46"/>
-      <c r="U26" s="46"/>
-      <c r="V26" s="46"/>
-      <c r="W26" s="46"/>
-      <c r="X26" s="46"/>
-      <c r="Y26" s="46"/>
-      <c r="Z26" s="46"/>
-      <c r="AA26" s="46"/>
-      <c r="AB26" s="46"/>
-      <c r="AC26" s="46"/>
-      <c r="AD26" s="46"/>
-      <c r="AE26" s="46"/>
-      <c r="AF26" s="46"/>
-      <c r="AG26" s="46"/>
-      <c r="AH26" s="46"/>
-      <c r="AI26" s="46"/>
-      <c r="AJ26" s="46"/>
-      <c r="AK26" s="47"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="63"/>
+      <c r="R26" s="63"/>
+      <c r="S26" s="63"/>
+      <c r="T26" s="63"/>
+      <c r="U26" s="63"/>
+      <c r="V26" s="63"/>
+      <c r="W26" s="63"/>
+      <c r="X26" s="63"/>
+      <c r="Y26" s="63"/>
+      <c r="Z26" s="63"/>
+      <c r="AA26" s="63"/>
+      <c r="AB26" s="63"/>
+      <c r="AC26" s="63"/>
+      <c r="AD26" s="63"/>
+      <c r="AE26" s="63"/>
+      <c r="AF26" s="63"/>
+      <c r="AG26" s="63"/>
+      <c r="AH26" s="63"/>
+      <c r="AI26" s="63"/>
+      <c r="AJ26" s="63"/>
+      <c r="AK26" s="64"/>
     </row>
     <row r="27" spans="1:37">
-      <c r="A27" s="65"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="46"/>
-      <c r="Q27" s="46"/>
-      <c r="R27" s="46"/>
-      <c r="S27" s="46"/>
-      <c r="T27" s="46"/>
-      <c r="U27" s="46"/>
-      <c r="V27" s="46"/>
-      <c r="W27" s="46"/>
-      <c r="X27" s="46"/>
-      <c r="Y27" s="46"/>
-      <c r="Z27" s="46"/>
-      <c r="AA27" s="46"/>
-      <c r="AB27" s="46"/>
-      <c r="AC27" s="46"/>
-      <c r="AD27" s="46"/>
-      <c r="AE27" s="46"/>
-      <c r="AF27" s="46"/>
-      <c r="AG27" s="46"/>
-      <c r="AH27" s="46"/>
-      <c r="AI27" s="46"/>
-      <c r="AJ27" s="46"/>
-      <c r="AK27" s="47"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="63"/>
+      <c r="R27" s="63"/>
+      <c r="S27" s="63"/>
+      <c r="T27" s="63"/>
+      <c r="U27" s="63"/>
+      <c r="V27" s="63"/>
+      <c r="W27" s="63"/>
+      <c r="X27" s="63"/>
+      <c r="Y27" s="63"/>
+      <c r="Z27" s="63"/>
+      <c r="AA27" s="63"/>
+      <c r="AB27" s="63"/>
+      <c r="AC27" s="63"/>
+      <c r="AD27" s="63"/>
+      <c r="AE27" s="63"/>
+      <c r="AF27" s="63"/>
+      <c r="AG27" s="63"/>
+      <c r="AH27" s="63"/>
+      <c r="AI27" s="63"/>
+      <c r="AJ27" s="63"/>
+      <c r="AK27" s="64"/>
     </row>
     <row r="28" spans="1:37">
-      <c r="A28" s="65"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="46"/>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="46"/>
-      <c r="S28" s="46"/>
-      <c r="T28" s="46"/>
-      <c r="U28" s="46"/>
-      <c r="V28" s="46"/>
-      <c r="W28" s="46"/>
-      <c r="X28" s="46"/>
-      <c r="Y28" s="46"/>
-      <c r="Z28" s="46"/>
-      <c r="AA28" s="46"/>
-      <c r="AB28" s="46"/>
-      <c r="AC28" s="46"/>
-      <c r="AD28" s="46"/>
-      <c r="AE28" s="46"/>
-      <c r="AF28" s="46"/>
-      <c r="AG28" s="46"/>
-      <c r="AH28" s="46"/>
-      <c r="AI28" s="46"/>
-      <c r="AJ28" s="46"/>
-      <c r="AK28" s="47"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63"/>
+      <c r="R28" s="63"/>
+      <c r="S28" s="63"/>
+      <c r="T28" s="63"/>
+      <c r="U28" s="63"/>
+      <c r="V28" s="63"/>
+      <c r="W28" s="63"/>
+      <c r="X28" s="63"/>
+      <c r="Y28" s="63"/>
+      <c r="Z28" s="63"/>
+      <c r="AA28" s="63"/>
+      <c r="AB28" s="63"/>
+      <c r="AC28" s="63"/>
+      <c r="AD28" s="63"/>
+      <c r="AE28" s="63"/>
+      <c r="AF28" s="63"/>
+      <c r="AG28" s="63"/>
+      <c r="AH28" s="63"/>
+      <c r="AI28" s="63"/>
+      <c r="AJ28" s="63"/>
+      <c r="AK28" s="64"/>
     </row>
     <row r="29" spans="1:37">
-      <c r="A29" s="65"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="46"/>
-      <c r="O29" s="46"/>
-      <c r="P29" s="46"/>
-      <c r="Q29" s="46"/>
-      <c r="R29" s="46"/>
-      <c r="S29" s="46"/>
-      <c r="T29" s="46"/>
-      <c r="U29" s="46"/>
-      <c r="V29" s="46"/>
-      <c r="W29" s="46"/>
-      <c r="X29" s="46"/>
-      <c r="Y29" s="46"/>
-      <c r="Z29" s="46"/>
-      <c r="AA29" s="46"/>
-      <c r="AB29" s="46"/>
-      <c r="AC29" s="46"/>
-      <c r="AD29" s="46"/>
-      <c r="AE29" s="46"/>
-      <c r="AF29" s="46"/>
-      <c r="AG29" s="46"/>
-      <c r="AH29" s="46"/>
-      <c r="AI29" s="46"/>
-      <c r="AJ29" s="46"/>
-      <c r="AK29" s="47"/>
-    </row>
-    <row r="30" spans="1:37" ht="12" thickBot="1">
-      <c r="A30" s="59"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="57"/>
-      <c r="P30" s="57"/>
-      <c r="Q30" s="57"/>
-      <c r="R30" s="57"/>
-      <c r="S30" s="57"/>
-      <c r="T30" s="57"/>
-      <c r="U30" s="57"/>
-      <c r="V30" s="57"/>
-      <c r="W30" s="57"/>
-      <c r="X30" s="57"/>
-      <c r="Y30" s="57"/>
-      <c r="Z30" s="57"/>
-      <c r="AA30" s="57"/>
-      <c r="AB30" s="57"/>
-      <c r="AC30" s="57"/>
-      <c r="AD30" s="57"/>
-      <c r="AE30" s="57"/>
-      <c r="AF30" s="57"/>
-      <c r="AG30" s="57"/>
-      <c r="AH30" s="57"/>
-      <c r="AI30" s="57"/>
-      <c r="AJ30" s="57"/>
-      <c r="AK30" s="58"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="63"/>
+      <c r="R29" s="63"/>
+      <c r="S29" s="63"/>
+      <c r="T29" s="63"/>
+      <c r="U29" s="63"/>
+      <c r="V29" s="63"/>
+      <c r="W29" s="63"/>
+      <c r="X29" s="63"/>
+      <c r="Y29" s="63"/>
+      <c r="Z29" s="63"/>
+      <c r="AA29" s="63"/>
+      <c r="AB29" s="63"/>
+      <c r="AC29" s="63"/>
+      <c r="AD29" s="63"/>
+      <c r="AE29" s="63"/>
+      <c r="AF29" s="63"/>
+      <c r="AG29" s="63"/>
+      <c r="AH29" s="63"/>
+      <c r="AI29" s="63"/>
+      <c r="AJ29" s="63"/>
+      <c r="AK29" s="64"/>
+    </row>
+    <row r="30" spans="1:37" ht="11.4" thickBot="1">
+      <c r="A30" s="36"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="65"/>
+      <c r="M30" s="65"/>
+      <c r="N30" s="65"/>
+      <c r="O30" s="65"/>
+      <c r="P30" s="65"/>
+      <c r="Q30" s="65"/>
+      <c r="R30" s="65"/>
+      <c r="S30" s="65"/>
+      <c r="T30" s="65"/>
+      <c r="U30" s="65"/>
+      <c r="V30" s="65"/>
+      <c r="W30" s="65"/>
+      <c r="X30" s="65"/>
+      <c r="Y30" s="65"/>
+      <c r="Z30" s="65"/>
+      <c r="AA30" s="65"/>
+      <c r="AB30" s="65"/>
+      <c r="AC30" s="65"/>
+      <c r="AD30" s="65"/>
+      <c r="AE30" s="65"/>
+      <c r="AF30" s="65"/>
+      <c r="AG30" s="65"/>
+      <c r="AH30" s="65"/>
+      <c r="AI30" s="65"/>
+      <c r="AJ30" s="65"/>
+      <c r="AK30" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="87">
+    <mergeCell ref="J2:AK2"/>
+    <mergeCell ref="J3:AK3"/>
+    <mergeCell ref="J4:AK4"/>
+    <mergeCell ref="J5:AK5"/>
+    <mergeCell ref="J11:AK11"/>
+    <mergeCell ref="J12:AK12"/>
+    <mergeCell ref="J6:AK6"/>
+    <mergeCell ref="J7:AK7"/>
+    <mergeCell ref="J8:AK8"/>
+    <mergeCell ref="J9:AK9"/>
+    <mergeCell ref="J10:AK10"/>
+    <mergeCell ref="J13:AK13"/>
+    <mergeCell ref="J14:AK14"/>
+    <mergeCell ref="J15:AK15"/>
+    <mergeCell ref="J16:AK16"/>
+    <mergeCell ref="J17:AK17"/>
+    <mergeCell ref="J24:AK24"/>
+    <mergeCell ref="J25:AK25"/>
+    <mergeCell ref="J26:AK26"/>
+    <mergeCell ref="J27:AK27"/>
+    <mergeCell ref="J18:AK18"/>
+    <mergeCell ref="J19:AK19"/>
+    <mergeCell ref="J20:AK20"/>
+    <mergeCell ref="J21:AK21"/>
+    <mergeCell ref="J22:AK22"/>
+    <mergeCell ref="J28:AK28"/>
+    <mergeCell ref="J29:AK29"/>
+    <mergeCell ref="J30:AK30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J23:AK23"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A6:E6"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="F9:I9"/>
@@ -11020,77 +11156,6 @@
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="F12:I12"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J28:AK28"/>
-    <mergeCell ref="J29:AK29"/>
-    <mergeCell ref="J30:AK30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J23:AK23"/>
-    <mergeCell ref="J24:AK24"/>
-    <mergeCell ref="J25:AK25"/>
-    <mergeCell ref="J26:AK26"/>
-    <mergeCell ref="J27:AK27"/>
-    <mergeCell ref="J18:AK18"/>
-    <mergeCell ref="J19:AK19"/>
-    <mergeCell ref="J20:AK20"/>
-    <mergeCell ref="J21:AK21"/>
-    <mergeCell ref="J22:AK22"/>
-    <mergeCell ref="J13:AK13"/>
-    <mergeCell ref="J14:AK14"/>
-    <mergeCell ref="J15:AK15"/>
-    <mergeCell ref="J16:AK16"/>
-    <mergeCell ref="J17:AK17"/>
-    <mergeCell ref="J12:AK12"/>
-    <mergeCell ref="J6:AK6"/>
-    <mergeCell ref="J7:AK7"/>
-    <mergeCell ref="J8:AK8"/>
-    <mergeCell ref="J9:AK9"/>
-    <mergeCell ref="J10:AK10"/>
-    <mergeCell ref="J2:AK2"/>
-    <mergeCell ref="J3:AK3"/>
-    <mergeCell ref="J4:AK4"/>
-    <mergeCell ref="J5:AK5"/>
-    <mergeCell ref="J11:AK11"/>
   </mergeCells>
   <phoneticPr fontId="36"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -11106,21 +11171,21 @@
   </sheetPr>
   <dimension ref="A1:Z901"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="33.125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20.375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="18.375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="28.375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="26" width="7.875" style="4" customWidth="1"/>
-    <col min="27" max="16384" width="12.5" style="4"/>
+    <col min="1" max="1" width="33.109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="26" width="7.88671875" style="4" customWidth="1"/>
+    <col min="27" max="16384" width="12.44140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
@@ -13927,25 +13992,25 @@
       <c r="Z72" s="6"/>
     </row>
     <row r="73" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A73" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="B73" s="33">
+      <c r="A73" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B73" s="17">
         <v>2024</v>
       </c>
-      <c r="C73" s="33">
+      <c r="C73" s="17">
         <v>1</v>
       </c>
-      <c r="D73" s="33">
+      <c r="D73" s="17">
         <v>1</v>
       </c>
-      <c r="E73" s="34">
+      <c r="E73" s="23">
         <v>45413</v>
       </c>
-      <c r="F73" s="34">
+      <c r="F73" s="23">
         <v>45443</v>
       </c>
-      <c r="G73" s="35" t="b">
+      <c r="G73" s="24" t="b">
         <v>0</v>
       </c>
       <c r="H73" s="25"/>
@@ -13969,25 +14034,25 @@
       <c r="Z73" s="25"/>
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A74" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="B74" s="33">
+      <c r="A74" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B74" s="17">
         <v>2024</v>
       </c>
-      <c r="C74" s="33">
+      <c r="C74" s="17">
         <v>2</v>
       </c>
-      <c r="D74" s="33">
+      <c r="D74" s="17">
         <v>1</v>
       </c>
-      <c r="E74" s="34">
+      <c r="E74" s="23">
         <v>45444</v>
       </c>
-      <c r="F74" s="34">
+      <c r="F74" s="23">
         <v>45473</v>
       </c>
-      <c r="G74" s="35" t="b">
+      <c r="G74" s="24" t="b">
         <v>0</v>
       </c>
       <c r="H74" s="6"/>
@@ -14011,25 +14076,25 @@
       <c r="Z74" s="6"/>
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A75" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="B75" s="33">
+      <c r="A75" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B75" s="17">
         <v>2024</v>
       </c>
-      <c r="C75" s="33">
+      <c r="C75" s="17">
         <v>3</v>
       </c>
-      <c r="D75" s="33">
+      <c r="D75" s="17">
         <v>1</v>
       </c>
-      <c r="E75" s="34">
+      <c r="E75" s="23">
         <v>45474</v>
       </c>
-      <c r="F75" s="34">
+      <c r="F75" s="23">
         <v>45504</v>
       </c>
-      <c r="G75" s="35" t="b">
+      <c r="G75" s="24" t="b">
         <v>0</v>
       </c>
       <c r="H75" s="6"/>
@@ -14053,25 +14118,25 @@
       <c r="Z75" s="6"/>
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A76" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="B76" s="33">
+      <c r="A76" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B76" s="17">
         <v>2024</v>
       </c>
-      <c r="C76" s="33">
+      <c r="C76" s="17">
         <v>4</v>
       </c>
-      <c r="D76" s="33">
+      <c r="D76" s="17">
         <v>1</v>
       </c>
-      <c r="E76" s="34">
+      <c r="E76" s="23">
         <v>45504</v>
       </c>
-      <c r="F76" s="34">
+      <c r="F76" s="23">
         <v>45504</v>
       </c>
-      <c r="G76" s="35" t="b">
+      <c r="G76" s="24" t="b">
         <v>1</v>
       </c>
       <c r="H76" s="6"/>
@@ -14095,25 +14160,25 @@
       <c r="Z76" s="6"/>
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A77" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="B77" s="33">
+      <c r="A77" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B77" s="17">
         <v>2024</v>
       </c>
-      <c r="C77" s="33">
+      <c r="C77" s="17">
         <v>5</v>
       </c>
-      <c r="D77" s="33">
+      <c r="D77" s="17">
         <v>2</v>
       </c>
-      <c r="E77" s="34">
+      <c r="E77" s="23">
         <v>45505</v>
       </c>
-      <c r="F77" s="34">
+      <c r="F77" s="23">
         <v>45535</v>
       </c>
-      <c r="G77" s="35" t="b">
+      <c r="G77" s="24" t="b">
         <v>0</v>
       </c>
       <c r="H77" s="6"/>
@@ -14137,25 +14202,25 @@
       <c r="Z77" s="6"/>
     </row>
     <row r="78" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A78" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="B78" s="33">
+      <c r="A78" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B78" s="17">
         <v>2024</v>
       </c>
-      <c r="C78" s="33">
+      <c r="C78" s="17">
         <v>6</v>
       </c>
-      <c r="D78" s="33">
+      <c r="D78" s="17">
         <v>2</v>
       </c>
-      <c r="E78" s="34">
+      <c r="E78" s="23">
         <v>45536</v>
       </c>
-      <c r="F78" s="34">
+      <c r="F78" s="23">
         <v>45565</v>
       </c>
-      <c r="G78" s="35" t="b">
+      <c r="G78" s="24" t="b">
         <v>0</v>
       </c>
       <c r="H78" s="6"/>
@@ -14179,25 +14244,25 @@
       <c r="Z78" s="6"/>
     </row>
     <row r="79" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A79" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="B79" s="33">
+      <c r="A79" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B79" s="17">
         <v>2024</v>
       </c>
-      <c r="C79" s="33">
+      <c r="C79" s="17">
         <v>7</v>
       </c>
-      <c r="D79" s="33">
+      <c r="D79" s="17">
         <v>2</v>
       </c>
-      <c r="E79" s="34">
+      <c r="E79" s="23">
         <v>45566</v>
       </c>
-      <c r="F79" s="34">
+      <c r="F79" s="23">
         <v>45596</v>
       </c>
-      <c r="G79" s="35" t="b">
+      <c r="G79" s="24" t="b">
         <v>0</v>
       </c>
       <c r="H79" s="6"/>
@@ -14221,25 +14286,25 @@
       <c r="Z79" s="6"/>
     </row>
     <row r="80" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A80" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="B80" s="33">
+      <c r="A80" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B80" s="17">
         <v>2024</v>
       </c>
-      <c r="C80" s="33">
+      <c r="C80" s="17">
         <v>8</v>
       </c>
-      <c r="D80" s="33">
+      <c r="D80" s="17">
         <v>2</v>
       </c>
-      <c r="E80" s="34">
+      <c r="E80" s="23">
         <v>45596</v>
       </c>
-      <c r="F80" s="34">
+      <c r="F80" s="23">
         <v>45596</v>
       </c>
-      <c r="G80" s="35" t="b">
+      <c r="G80" s="24" t="b">
         <v>1</v>
       </c>
       <c r="H80" s="6"/>
@@ -14263,25 +14328,25 @@
       <c r="Z80" s="6"/>
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A81" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="B81" s="33">
+      <c r="A81" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B81" s="17">
         <v>2024</v>
       </c>
-      <c r="C81" s="33">
+      <c r="C81" s="17">
         <v>9</v>
       </c>
-      <c r="D81" s="33">
+      <c r="D81" s="17">
         <v>3</v>
       </c>
-      <c r="E81" s="34">
+      <c r="E81" s="23">
         <v>45597</v>
       </c>
-      <c r="F81" s="34">
+      <c r="F81" s="23">
         <v>45626</v>
       </c>
-      <c r="G81" s="35" t="b">
+      <c r="G81" s="24" t="b">
         <v>0</v>
       </c>
       <c r="H81" s="6"/>
@@ -14305,25 +14370,25 @@
       <c r="Z81" s="6"/>
     </row>
     <row r="82" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A82" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="B82" s="33">
+      <c r="A82" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B82" s="17">
         <v>2024</v>
       </c>
-      <c r="C82" s="33">
+      <c r="C82" s="17">
         <v>10</v>
       </c>
-      <c r="D82" s="33">
+      <c r="D82" s="17">
         <v>3</v>
       </c>
-      <c r="E82" s="34">
+      <c r="E82" s="23">
         <v>45627</v>
       </c>
-      <c r="F82" s="34">
+      <c r="F82" s="23">
         <v>45657</v>
       </c>
-      <c r="G82" s="35" t="b">
+      <c r="G82" s="24" t="b">
         <v>0</v>
       </c>
       <c r="H82" s="6"/>
@@ -14347,25 +14412,25 @@
       <c r="Z82" s="6"/>
     </row>
     <row r="83" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A83" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="B83" s="33">
+      <c r="A83" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B83" s="17">
         <v>2024</v>
       </c>
-      <c r="C83" s="33">
+      <c r="C83" s="17">
         <v>11</v>
       </c>
-      <c r="D83" s="33">
+      <c r="D83" s="17">
         <v>3</v>
       </c>
-      <c r="E83" s="34">
+      <c r="E83" s="23">
         <v>45658</v>
       </c>
-      <c r="F83" s="34">
+      <c r="F83" s="23">
         <v>45688</v>
       </c>
-      <c r="G83" s="35" t="b">
+      <c r="G83" s="24" t="b">
         <v>0</v>
       </c>
       <c r="H83" s="6"/>
@@ -14389,25 +14454,25 @@
       <c r="Z83" s="6"/>
     </row>
     <row r="84" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A84" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="B84" s="33">
+      <c r="A84" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B84" s="17">
         <v>2024</v>
       </c>
-      <c r="C84" s="33">
+      <c r="C84" s="17">
         <v>12</v>
       </c>
-      <c r="D84" s="33">
+      <c r="D84" s="17">
         <v>3</v>
       </c>
-      <c r="E84" s="34">
+      <c r="E84" s="23">
         <v>45688</v>
       </c>
-      <c r="F84" s="34">
+      <c r="F84" s="23">
         <v>45688</v>
       </c>
-      <c r="G84" s="35" t="b">
+      <c r="G84" s="24" t="b">
         <v>1</v>
       </c>
       <c r="H84" s="6"/>
@@ -14431,25 +14496,25 @@
       <c r="Z84" s="6"/>
     </row>
     <row r="85" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A85" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="B85" s="33">
+      <c r="A85" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B85" s="17">
         <v>2024</v>
       </c>
-      <c r="C85" s="33">
+      <c r="C85" s="17">
         <v>13</v>
       </c>
-      <c r="D85" s="33">
+      <c r="D85" s="17">
         <v>4</v>
       </c>
-      <c r="E85" s="34">
+      <c r="E85" s="23">
         <v>45689</v>
       </c>
-      <c r="F85" s="34">
+      <c r="F85" s="23">
         <v>45716</v>
       </c>
-      <c r="G85" s="35" t="b">
+      <c r="G85" s="24" t="b">
         <v>0</v>
       </c>
       <c r="H85" s="6"/>
@@ -14473,25 +14538,25 @@
       <c r="Z85" s="6"/>
     </row>
     <row r="86" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A86" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="B86" s="33">
+      <c r="A86" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B86" s="17">
         <v>2024</v>
       </c>
-      <c r="C86" s="33">
+      <c r="C86" s="17">
         <v>14</v>
       </c>
-      <c r="D86" s="33">
+      <c r="D86" s="17">
         <v>4</v>
       </c>
-      <c r="E86" s="34">
+      <c r="E86" s="23">
         <v>45717</v>
       </c>
-      <c r="F86" s="34">
+      <c r="F86" s="23">
         <v>45747</v>
       </c>
-      <c r="G86" s="35" t="b">
+      <c r="G86" s="24" t="b">
         <v>0</v>
       </c>
       <c r="H86" s="6"/>
@@ -14515,25 +14580,25 @@
       <c r="Z86" s="6"/>
     </row>
     <row r="87" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A87" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="B87" s="33">
+      <c r="A87" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B87" s="17">
         <v>2024</v>
       </c>
-      <c r="C87" s="33">
+      <c r="C87" s="17">
         <v>15</v>
       </c>
-      <c r="D87" s="33">
+      <c r="D87" s="17">
         <v>4</v>
       </c>
-      <c r="E87" s="34">
+      <c r="E87" s="23">
         <v>45748</v>
       </c>
-      <c r="F87" s="34">
+      <c r="F87" s="23">
         <v>45777</v>
       </c>
-      <c r="G87" s="35" t="b">
+      <c r="G87" s="24" t="b">
         <v>0</v>
       </c>
       <c r="H87" s="6"/>
@@ -14557,25 +14622,25 @@
       <c r="Z87" s="6"/>
     </row>
     <row r="88" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A88" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="B88" s="33">
+      <c r="A88" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B88" s="17">
         <v>2024</v>
       </c>
-      <c r="C88" s="33">
+      <c r="C88" s="17">
         <v>16</v>
       </c>
-      <c r="D88" s="33">
+      <c r="D88" s="17">
         <v>4</v>
       </c>
-      <c r="E88" s="34">
+      <c r="E88" s="23">
         <v>45777</v>
       </c>
-      <c r="F88" s="34">
+      <c r="F88" s="23">
         <v>45777</v>
       </c>
-      <c r="G88" s="35" t="b">
+      <c r="G88" s="24" t="b">
         <v>1</v>
       </c>
       <c r="H88" s="6"/>
@@ -14599,9 +14664,7 @@
       <c r="Z88" s="6"/>
     </row>
     <row r="89" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A89" s="30" t="s">
-        <v>88</v>
-      </c>
+      <c r="A89" s="30"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -14629,15 +14692,27 @@
       <c r="Z89" s="6"/>
     </row>
     <row r="90" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A90" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="3"/>
+      <c r="A90" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="H90" s="6"/>
       <c r="I90" s="6"/>
       <c r="J90" s="6"/>
@@ -14659,13 +14734,27 @@
       <c r="Z90" s="6"/>
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A91" s="6"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="3"/>
+      <c r="A91" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B91" s="33">
+        <v>2025</v>
+      </c>
+      <c r="C91" s="33">
+        <v>1</v>
+      </c>
+      <c r="D91" s="33">
+        <v>1</v>
+      </c>
+      <c r="E91" s="34">
+        <v>45778</v>
+      </c>
+      <c r="F91" s="34">
+        <v>45808</v>
+      </c>
+      <c r="G91" s="35" t="b">
+        <v>0</v>
+      </c>
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
@@ -14687,13 +14776,27 @@
       <c r="Z91" s="6"/>
     </row>
     <row r="92" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A92" s="6"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="3"/>
+      <c r="A92" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="B92" s="33">
+        <v>2025</v>
+      </c>
+      <c r="C92" s="33">
+        <v>2</v>
+      </c>
+      <c r="D92" s="33">
+        <v>1</v>
+      </c>
+      <c r="E92" s="34">
+        <v>45809</v>
+      </c>
+      <c r="F92" s="34">
+        <v>45838</v>
+      </c>
+      <c r="G92" s="35" t="b">
+        <v>0</v>
+      </c>
       <c r="H92" s="6"/>
       <c r="I92" s="6"/>
       <c r="J92" s="6"/>
@@ -14715,13 +14818,27 @@
       <c r="Z92" s="6"/>
     </row>
     <row r="93" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A93" s="6"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="3"/>
+      <c r="A93" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B93" s="33">
+        <v>2025</v>
+      </c>
+      <c r="C93" s="33">
+        <v>3</v>
+      </c>
+      <c r="D93" s="33">
+        <v>1</v>
+      </c>
+      <c r="E93" s="34">
+        <v>45839</v>
+      </c>
+      <c r="F93" s="34">
+        <v>45869</v>
+      </c>
+      <c r="G93" s="35" t="b">
+        <v>0</v>
+      </c>
       <c r="H93" s="6"/>
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
@@ -14743,13 +14860,27 @@
       <c r="Z93" s="6"/>
     </row>
     <row r="94" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A94" s="6"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="3"/>
+      <c r="A94" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B94" s="33">
+        <v>2025</v>
+      </c>
+      <c r="C94" s="33">
+        <v>4</v>
+      </c>
+      <c r="D94" s="33">
+        <v>1</v>
+      </c>
+      <c r="E94" s="34">
+        <v>45869</v>
+      </c>
+      <c r="F94" s="34">
+        <v>45869</v>
+      </c>
+      <c r="G94" s="35" t="b">
+        <v>1</v>
+      </c>
       <c r="H94" s="6"/>
       <c r="I94" s="6"/>
       <c r="J94" s="6"/>
@@ -14771,13 +14902,27 @@
       <c r="Z94" s="6"/>
     </row>
     <row r="95" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A95" s="6"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="3"/>
+      <c r="A95" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B95" s="33">
+        <v>2025</v>
+      </c>
+      <c r="C95" s="33">
+        <v>5</v>
+      </c>
+      <c r="D95" s="33">
+        <v>2</v>
+      </c>
+      <c r="E95" s="34">
+        <v>45870</v>
+      </c>
+      <c r="F95" s="34">
+        <v>45900</v>
+      </c>
+      <c r="G95" s="35" t="b">
+        <v>0</v>
+      </c>
       <c r="H95" s="6"/>
       <c r="I95" s="6"/>
       <c r="J95" s="6"/>
@@ -14799,13 +14944,27 @@
       <c r="Z95" s="6"/>
     </row>
     <row r="96" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A96" s="6"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="3"/>
+      <c r="A96" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B96" s="33">
+        <v>2025</v>
+      </c>
+      <c r="C96" s="33">
+        <v>6</v>
+      </c>
+      <c r="D96" s="33">
+        <v>2</v>
+      </c>
+      <c r="E96" s="34">
+        <v>45901</v>
+      </c>
+      <c r="F96" s="34">
+        <v>45930</v>
+      </c>
+      <c r="G96" s="35" t="b">
+        <v>0</v>
+      </c>
       <c r="H96" s="6"/>
       <c r="I96" s="6"/>
       <c r="J96" s="6"/>
@@ -14827,13 +14986,27 @@
       <c r="Z96" s="6"/>
     </row>
     <row r="97" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A97" s="6"/>
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="3"/>
+      <c r="A97" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B97" s="33">
+        <v>2025</v>
+      </c>
+      <c r="C97" s="33">
+        <v>7</v>
+      </c>
+      <c r="D97" s="33">
+        <v>2</v>
+      </c>
+      <c r="E97" s="34">
+        <v>45931</v>
+      </c>
+      <c r="F97" s="34">
+        <v>45961</v>
+      </c>
+      <c r="G97" s="35" t="b">
+        <v>0</v>
+      </c>
       <c r="H97" s="6"/>
       <c r="I97" s="6"/>
       <c r="J97" s="6"/>
@@ -14855,13 +15028,27 @@
       <c r="Z97" s="6"/>
     </row>
     <row r="98" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A98" s="6"/>
-      <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="3"/>
+      <c r="A98" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="B98" s="33">
+        <v>2025</v>
+      </c>
+      <c r="C98" s="33">
+        <v>8</v>
+      </c>
+      <c r="D98" s="33">
+        <v>2</v>
+      </c>
+      <c r="E98" s="34">
+        <v>45961</v>
+      </c>
+      <c r="F98" s="34">
+        <v>45961</v>
+      </c>
+      <c r="G98" s="35" t="b">
+        <v>1</v>
+      </c>
       <c r="H98" s="6"/>
       <c r="I98" s="6"/>
       <c r="J98" s="6"/>
@@ -14883,13 +15070,27 @@
       <c r="Z98" s="6"/>
     </row>
     <row r="99" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A99" s="6"/>
-      <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="3"/>
+      <c r="A99" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="B99" s="33">
+        <v>2025</v>
+      </c>
+      <c r="C99" s="33">
+        <v>9</v>
+      </c>
+      <c r="D99" s="33">
+        <v>3</v>
+      </c>
+      <c r="E99" s="34">
+        <v>45962</v>
+      </c>
+      <c r="F99" s="34">
+        <v>45991</v>
+      </c>
+      <c r="G99" s="35" t="b">
+        <v>0</v>
+      </c>
       <c r="H99" s="6"/>
       <c r="I99" s="6"/>
       <c r="J99" s="6"/>
@@ -14911,13 +15112,27 @@
       <c r="Z99" s="6"/>
     </row>
     <row r="100" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A100" s="6"/>
-      <c r="B100" s="6"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="3"/>
+      <c r="A100" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="B100" s="33">
+        <v>2025</v>
+      </c>
+      <c r="C100" s="33">
+        <v>10</v>
+      </c>
+      <c r="D100" s="33">
+        <v>3</v>
+      </c>
+      <c r="E100" s="34">
+        <v>45992</v>
+      </c>
+      <c r="F100" s="34">
+        <v>46022</v>
+      </c>
+      <c r="G100" s="35" t="b">
+        <v>0</v>
+      </c>
       <c r="H100" s="6"/>
       <c r="I100" s="6"/>
       <c r="J100" s="6"/>
@@ -14939,13 +15154,27 @@
       <c r="Z100" s="6"/>
     </row>
     <row r="101" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A101" s="6"/>
-      <c r="B101" s="6"/>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="3"/>
+      <c r="A101" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="B101" s="33">
+        <v>2025</v>
+      </c>
+      <c r="C101" s="33">
+        <v>11</v>
+      </c>
+      <c r="D101" s="33">
+        <v>3</v>
+      </c>
+      <c r="E101" s="34">
+        <v>46023</v>
+      </c>
+      <c r="F101" s="34">
+        <v>46053</v>
+      </c>
+      <c r="G101" s="35" t="b">
+        <v>0</v>
+      </c>
       <c r="H101" s="6"/>
       <c r="I101" s="6"/>
       <c r="J101" s="6"/>
@@ -14967,13 +15196,27 @@
       <c r="Z101" s="6"/>
     </row>
     <row r="102" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A102" s="6"/>
-      <c r="B102" s="6"/>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="3"/>
+      <c r="A102" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="B102" s="33">
+        <v>2025</v>
+      </c>
+      <c r="C102" s="33">
+        <v>12</v>
+      </c>
+      <c r="D102" s="33">
+        <v>3</v>
+      </c>
+      <c r="E102" s="34">
+        <v>46053</v>
+      </c>
+      <c r="F102" s="34">
+        <v>46053</v>
+      </c>
+      <c r="G102" s="35" t="b">
+        <v>1</v>
+      </c>
       <c r="H102" s="6"/>
       <c r="I102" s="6"/>
       <c r="J102" s="6"/>
@@ -14995,13 +15238,27 @@
       <c r="Z102" s="6"/>
     </row>
     <row r="103" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A103" s="6"/>
-      <c r="B103" s="6"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
-      <c r="G103" s="3"/>
+      <c r="A103" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="B103" s="33">
+        <v>2025</v>
+      </c>
+      <c r="C103" s="33">
+        <v>13</v>
+      </c>
+      <c r="D103" s="33">
+        <v>4</v>
+      </c>
+      <c r="E103" s="34">
+        <v>46054</v>
+      </c>
+      <c r="F103" s="34">
+        <v>46081</v>
+      </c>
+      <c r="G103" s="35" t="b">
+        <v>0</v>
+      </c>
       <c r="H103" s="6"/>
       <c r="I103" s="6"/>
       <c r="J103" s="6"/>
@@ -15023,13 +15280,27 @@
       <c r="Z103" s="6"/>
     </row>
     <row r="104" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A104" s="6"/>
-      <c r="B104" s="6"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="3"/>
+      <c r="A104" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="B104" s="33">
+        <v>2025</v>
+      </c>
+      <c r="C104" s="33">
+        <v>14</v>
+      </c>
+      <c r="D104" s="33">
+        <v>4</v>
+      </c>
+      <c r="E104" s="34">
+        <v>46082</v>
+      </c>
+      <c r="F104" s="34">
+        <v>46112</v>
+      </c>
+      <c r="G104" s="35" t="b">
+        <v>0</v>
+      </c>
       <c r="H104" s="6"/>
       <c r="I104" s="6"/>
       <c r="J104" s="6"/>
@@ -15051,13 +15322,27 @@
       <c r="Z104" s="6"/>
     </row>
     <row r="105" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A105" s="6"/>
-      <c r="B105" s="6"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
-      <c r="G105" s="3"/>
+      <c r="A105" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B105" s="33">
+        <v>2025</v>
+      </c>
+      <c r="C105" s="33">
+        <v>15</v>
+      </c>
+      <c r="D105" s="33">
+        <v>4</v>
+      </c>
+      <c r="E105" s="34">
+        <v>46113</v>
+      </c>
+      <c r="F105" s="34">
+        <v>46142</v>
+      </c>
+      <c r="G105" s="35" t="b">
+        <v>0</v>
+      </c>
       <c r="H105" s="6"/>
       <c r="I105" s="6"/>
       <c r="J105" s="6"/>
@@ -15079,13 +15364,27 @@
       <c r="Z105" s="6"/>
     </row>
     <row r="106" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A106" s="6"/>
-      <c r="B106" s="6"/>
-      <c r="C106" s="6"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6"/>
-      <c r="G106" s="3"/>
+      <c r="A106" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="B106" s="33">
+        <v>2025</v>
+      </c>
+      <c r="C106" s="33">
+        <v>16</v>
+      </c>
+      <c r="D106" s="33">
+        <v>4</v>
+      </c>
+      <c r="E106" s="34">
+        <v>46142</v>
+      </c>
+      <c r="F106" s="34">
+        <v>46142</v>
+      </c>
+      <c r="G106" s="35" t="b">
+        <v>1</v>
+      </c>
       <c r="H106" s="6"/>
       <c r="I106" s="6"/>
       <c r="J106" s="6"/>
